--- a/NformTester/NformTester/Keywordscripts/700.30.60_ExportActionHistoryforAllAlarmTypewithSpecifiedStartandEndDate.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.60_ExportActionHistoryforAllAlarmTypewithSpecifiedStartandEndDate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,12 +1255,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="887">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3952,6 +3952,14 @@
   </si>
   <si>
     <t>,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4226,10 +4234,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4252,7 +4260,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4538,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5880,7 +5888,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>832</v>
+        <v>885</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>800</v>
@@ -5906,7 +5914,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>832</v>
+        <v>886</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>800</v>

--- a/NformTester/NformTester/Keywordscripts/700.30.60_ExportActionHistoryforAllAlarmTypewithSpecifiedStartandEndDate.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.60_ExportActionHistoryforAllAlarmTypewithSpecifiedStartandEndDate.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7902" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="888">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3961,6 +3961,10 @@
   <si>
     <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4544,10 +4548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4642,24 +4646,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>817</v>
+        <v>882</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>844</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4676,24 +4674,30 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4703,11 +4707,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4728,7 +4736,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4746,13 +4754,13 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -4766,7 +4774,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
         <v>846</v>
       </c>
@@ -4774,32 +4782,22 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>626</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>849</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="24"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>828</v>
       </c>
@@ -4807,22 +4805,32 @@
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="D9" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="2" t="s">
         <v>804</v>
       </c>
@@ -4832,20 +4840,14 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="D10" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -4860,15 +4862,15 @@
         <v>10</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="21"/>
@@ -4891,11 +4893,11 @@
       <c r="D12" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>348</v>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>2</v>
@@ -4920,22 +4922,20 @@
       <c r="D13" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="E13" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="19"/>
       <c r="O13" s="17"/>
@@ -4955,13 +4955,13 @@
         <v>352</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4986,12 +4986,14 @@
         <v>352</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -5012,10 +5014,10 @@
         <v>830</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2</v>
@@ -5044,7 +5046,7 @@
         <v>358</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2</v>
@@ -5070,17 +5072,15 @@
         <v>830</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>852</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5104,7 +5104,7 @@
         <v>403</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>4</v>
@@ -5137,13 +5137,13 @@
         <v>403</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>398</v>
+        <v>221</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -5168,13 +5168,13 @@
         <v>403</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>853</v>
+        <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -5199,12 +5199,14 @@
         <v>403</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>404</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>853</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>854</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5219,11 +5221,11 @@
       <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="20" t="s">
         <v>830</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>17</v>
@@ -5249,11 +5251,11 @@
       <c r="D24" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>348</v>
+      <c r="E24" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2</v>
@@ -5267,64 +5269,64 @@
       <c r="N24" s="19"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" spans="1:15">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="D25" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="18"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="15">
       <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="24"/>
+      <c r="D26" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:15">
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="D27" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -5344,7 +5346,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>2</v>
@@ -5361,21 +5363,19 @@
       <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>857</v>
-      </c>
+      <c r="E29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -5394,12 +5394,14 @@
         <v>348</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>857</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -5414,21 +5416,17 @@
       <c r="D31" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>433</v>
+      <c r="E31" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>434</v>
+        <v>350</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>877</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -5446,15 +5444,17 @@
         <v>433</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>113</v>
+        <v>434</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>877</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -5475,10 +5475,10 @@
         <v>113</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -5498,18 +5498,20 @@
         <v>433</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>436</v>
+        <v>113</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>868</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="14"/>
+      <c r="N34" s="24"/>
     </row>
     <row r="35" spans="3:15">
       <c r="C35" s="3">
@@ -5522,7 +5524,7 @@
         <v>433</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>2</v>
@@ -5542,8 +5544,8 @@
       <c r="D36" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>348</v>
+      <c r="E36" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>100</v>
@@ -5564,15 +5566,17 @@
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -5581,15 +5585,19 @@
       <c r="M37" s="3"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="3:15" ht="15">
+    <row r="38" spans="3:15">
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -5599,22 +5607,16 @@
       <c r="M38" s="3"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" ht="15">
       <c r="C39" s="3">
         <v>38</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>2</v>
-      </c>
+      <c r="D39" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -5634,7 +5636,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>2</v>
@@ -5655,17 +5657,15 @@
         <v>830</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>877</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5685,12 +5685,14 @@
         <v>620</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>877</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -5707,10 +5709,10 @@
         <v>830</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2</v>
@@ -5734,7 +5736,7 @@
         <v>629</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>17</v>
+        <v>631</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2</v>
@@ -5755,10 +5757,10 @@
         <v>830</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2</v>
@@ -5776,57 +5778,57 @@
         <v>45</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+        <v>830</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="3:15" ht="15">
+    <row r="47" spans="3:15">
       <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="D47" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="3:15">
+    <row r="48" spans="3:15" ht="15">
       <c r="C48" s="3">
         <v>47</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D48" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -5846,7 +5848,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>2</v>
@@ -5870,7 +5872,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>2</v>
@@ -5888,22 +5890,20 @@
         <v>50</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>885</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J51" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -5914,7 +5914,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>800</v>
@@ -5922,7 +5922,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>860</v>
@@ -5940,25 +5940,21 @@
         <v>52</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>830</v>
+        <v>886</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="J53" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -5976,14 +5972,20 @@
         <v>747</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J54" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -6000,7 +6002,7 @@
         <v>747</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>2</v>
@@ -6024,7 +6026,7 @@
         <v>747</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>2</v>
@@ -6048,7 +6050,7 @@
         <v>747</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>417</v>
+        <v>741</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>2</v>
@@ -6075,17 +6077,11 @@
         <v>417</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J58" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -6102,7 +6098,7 @@
         <v>747</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>7</v>
@@ -6132,14 +6128,20 @@
         <v>747</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>743</v>
+        <v>416</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J60" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -6156,7 +6158,7 @@
         <v>747</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2</v>
@@ -6174,15 +6176,17 @@
         <v>61</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2</v>
-      </c>
-      <c r="G62" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -6196,20 +6200,16 @@
         <v>62</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>862</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -6228,12 +6228,14 @@
         <v>747</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>749</v>
+        <v>633</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>862</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -6252,14 +6254,12 @@
         <v>747</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>398</v>
+        <v>749</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>882</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -6278,12 +6278,14 @@
         <v>747</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>882</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -6296,15 +6298,17 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F67" s="3">
-        <v>2</v>
-      </c>
-      <c r="G67" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -6318,17 +6322,15 @@
         <v>67</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -6343,22 +6345,20 @@
         <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J69" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -6378,7 +6378,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>860</v>
@@ -6405,13 +6405,13 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="J71" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -6434,7 +6434,7 @@
         <v>882</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="J72" s="3" t="b">
         <v>1</v>
@@ -6460,7 +6460,7 @@
         <v>882</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J73" s="3" t="b">
         <v>1</v>
@@ -6486,7 +6486,7 @@
         <v>882</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J74" s="3" t="b">
         <v>1</v>
@@ -6512,7 +6512,7 @@
         <v>882</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>1</v>
@@ -6538,7 +6538,7 @@
         <v>882</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>1</v>
@@ -6564,7 +6564,7 @@
         <v>882</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J77" s="3" t="b">
         <v>1</v>
@@ -6590,7 +6590,7 @@
         <v>882</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="J78" s="3" t="b">
         <v>1</v>
@@ -6600,42 +6600,44 @@
       <c r="M78" s="3"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="3:15" ht="15">
+    <row r="79" spans="3:15">
       <c r="C79" s="3">
         <v>78</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="E79" s="3"/>
+      <c r="D79" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="J79" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="3:15">
+    <row r="80" spans="3:15" ht="15">
       <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
+      <c r="D80" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -6647,13 +6649,13 @@
         <v>80</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>2</v>
@@ -6674,25 +6676,23 @@
         <v>865</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="I82" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="3:14" ht="14.25">
+    <row r="83" spans="3:14">
       <c r="C83" s="3">
         <v>82</v>
       </c>
@@ -6703,12 +6703,14 @@
         <v>866</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>213</v>
+        <v>621</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H83" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -6716,23 +6718,23 @@
       <c r="M83" s="3"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="3:14">
+    <row r="84" spans="3:14" ht="14.25">
       <c r="C84" s="3">
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>628</v>
+      <c r="E84" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H84" s="21"/>
+      <c r="H84" s="15"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -6747,17 +6749,17 @@
       <c r="D85" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="E85" s="21" t="s">
-        <v>866</v>
+      <c r="E85" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
+      <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -6769,19 +6771,19 @@
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>19</v>
+        <v>865</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -6798,10 +6800,10 @@
       <c r="E87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G87" s="18" t="s">
+      <c r="F87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H87" s="3"/>
@@ -6819,18 +6821,16 @@
       <c r="D88" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E88" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>857</v>
-      </c>
+      <c r="E88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -6849,12 +6849,14 @@
         <v>348</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>857</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -6873,7 +6875,7 @@
         <v>348</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>2</v>
@@ -6886,9 +6888,47 @@
       <c r="M90" s="3"/>
       <c r="N90" s="14"/>
     </row>
+    <row r="91" spans="3:14">
+      <c r="C91" s="3">
+        <v>90</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="14"/>
+    </row>
+    <row r="92" spans="3:14">
+      <c r="C92" s="3">
+        <v>91</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N90">
+  <conditionalFormatting sqref="N2:N91">
     <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6897,16 +6937,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G83:G90 G2:G81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G84:G91 G2:G82">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D80 D86:D90 D48:D78 D26:D37 D10:D24 D39:D46 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D81 D87:D92 D49:D79 D27:D38 D11:D25 D40:D47 D3:D5">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E92">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F91">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/700.30.60_ExportActionHistoryforAllAlarmTypewithSpecifiedStartandEndDate.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.60_ExportActionHistoryforAllAlarmTypewithSpecifiedStartandEndDate.xlsx
@@ -3923,10 +3923,6 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>"C:\result.txt"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3965,6 +3961,10 @@
   <si>
     <t>DeleteLocalFile</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4038,6 +4038,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4550,8 +4551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4640,7 +4641,7 @@
         <v>822</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -4649,10 +4650,10 @@
         <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4736,7 +4737,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4760,7 +4761,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5174,7 +5175,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -5453,7 +5454,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -5691,7 +5692,7 @@
         <v>56</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -5914,7 +5915,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>800</v>
@@ -5940,7 +5941,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>800</v>
@@ -5978,7 +5979,7 @@
         <v>7</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>875</v>
@@ -6284,7 +6285,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -6431,7 +6432,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>873</v>
@@ -6457,7 +6458,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>869</v>
@@ -6483,7 +6484,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I74" s="3" t="s">
         <v>870</v>
@@ -6509,7 +6510,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>871</v>
@@ -6535,7 +6536,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>872</v>
@@ -6561,7 +6562,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>873</v>
@@ -6587,7 +6588,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>874</v>
@@ -6613,10 +6614,10 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J79" s="3" t="b">
         <v>1</v>
@@ -6920,10 +6921,10 @@
         <v>832</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
